--- a/Resources/womens-earnings-tables-2020 (1).xlsx
+++ b/Resources/womens-earnings-tables-2020 (1).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="109" documentId="8_{BA3F68A6-CCE5-41A7-8DCB-34D9AABCC036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E9DF761-8EF4-4BE2-A2D4-5A93DD2A25C1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="15" r:id="rId1"/>
@@ -4750,6 +4750,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:K47"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:A4"/>
@@ -4757,12 +4763,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:K47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -75581,10 +75581,10 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A60" sqref="A60:K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -82771,13 +82771,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A48:K48"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A50:K50"/>
@@ -82786,6 +82779,13 @@
     <mergeCell ref="A45:K45"/>
     <mergeCell ref="A46:K46"/>
     <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
